--- a/test/assets/input/daten1.xlsx
+++ b/test/assets/input/daten1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -14,19 +14,18 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">Tabelle1!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -76,10 +75,16 @@
     <t xml:space="preserve">W9</t>
   </si>
   <si>
+    <t xml:space="preserve">info</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuchs</t>
   </si>
   <si>
     <t xml:space="preserve">WAHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nix</t>
   </si>
   <si>
     <t xml:space="preserve">Bär</t>
@@ -104,13 +109,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="&quot;WAHR&quot;;&quot;WAHR&quot;;&quot;FALSCH&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,6 +137,12 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +161,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,6 +185,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -180,14 +193,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,14 +204,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Ergebnis 2" xfId="20"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -335,18 +349,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="Q7" activeCellId="0" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="13.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +409,11 @@
       <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -407,18 +424,16 @@
         <v>46022</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="b">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="3" t="b">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>1001.16</v>
@@ -447,8 +462,11 @@
       <c r="P2" s="5" t="n">
         <v>400</v>
       </c>
+      <c r="Q2" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -459,18 +477,16 @@
         <v>46022</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="b">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="3" t="b">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>1002.16</v>
@@ -499,8 +515,11 @@
       <c r="P3" s="5" t="n">
         <v>400</v>
       </c>
+      <c r="Q3" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -511,18 +530,16 @@
         <v>46022</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="b">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F4" s="3" t="b">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>1001.16</v>
@@ -551,8 +568,11 @@
       <c r="P4" s="5" t="n">
         <v>400</v>
       </c>
+      <c r="Q4" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -563,18 +583,16 @@
         <v>46022</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>1002.16</v>
@@ -603,8 +621,11 @@
       <c r="P5" s="5" t="n">
         <v>400</v>
       </c>
+      <c r="Q5" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -615,18 +636,16 @@
         <v>46022</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="b">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="3" t="b">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>1002.16</v>
@@ -655,8 +674,11 @@
       <c r="P6" s="5" t="n">
         <v>400</v>
       </c>
+      <c r="Q6" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -667,18 +689,16 @@
         <v>46022</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="b">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F7" s="3" t="b">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>1001.16</v>
@@ -706,6 +726,9 @@
       </c>
       <c r="P7" s="5" t="n">
         <v>400</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -728,12 +751,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -751,12 +776,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
